--- a/artifacts/GDGT_dist_table.xlsx
+++ b/artifacts/GDGT_dist_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Desktop/Keller_manu_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Desktop/cascadia-margin-lipids/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DF2C0B-D0D1-7F4B-BCAA-AFE9A78F04F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B156CA7-1B1B-0642-B687-49B1058FBACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="12400" windowWidth="35240" windowHeight="10420" xr2:uid="{5E5DB6B2-0D90-2047-889D-F6D44F14AB3E}"/>
+    <workbookView xWindow="3160" yWindow="12260" windowWidth="35240" windowHeight="10420" xr2:uid="{5E5DB6B2-0D90-2047-889D-F6D44F14AB3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>source</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>0 - 0.2</t>
+  </si>
+  <si>
+    <t>G4</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D94A3CC-463B-DC40-A374-57EAFD15F646}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +499,7 @@
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,13 +516,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -535,14 +541,17 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -558,14 +567,17 @@
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -581,10 +593,13 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
